--- a/TestData/LeatherManagement/LeatherTestData.xlsx
+++ b/TestData/LeatherManagement/LeatherTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\LeatherManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D5D36-8209-4229-8E38-54EED1DCE62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4487D670-BB3C-48F4-A7F7-C297A553C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addLeather" sheetId="1" r:id="rId1"/>
@@ -103,27 +103,9 @@
     <t>Black</t>
   </si>
   <si>
-    <t>LT-029</t>
-  </si>
-  <si>
-    <t>Leather00-29</t>
-  </si>
-  <si>
     <t>E:\POM_for_Bottle\WebApp\TestData\InventoryData\Image\Fraper leather Jacket.jpg</t>
   </si>
   <si>
-    <t>LT-028</t>
-  </si>
-  <si>
-    <t>Leather00-28</t>
-  </si>
-  <si>
-    <t>LT-027</t>
-  </si>
-  <si>
-    <t>Leather00-27</t>
-  </si>
-  <si>
     <t>leather_flag</t>
   </si>
   <si>
@@ -181,85 +163,103 @@
     <t>E:\POM_for_Bottle\WebApp\TestData\InventoryData\Image\BikerJacket.jpg</t>
   </si>
   <si>
-    <t>AT-LT-00-27</t>
-  </si>
-  <si>
-    <t>AT-LT-00-28</t>
-  </si>
-  <si>
     <t>ItemCategoryName</t>
   </si>
   <si>
     <t>codeName</t>
   </si>
   <si>
-    <t>T0-LT-00-27</t>
-  </si>
-  <si>
-    <t>T0-LT-00-28</t>
-  </si>
-  <si>
-    <t>T0-LT-00-29</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
-    <t>This is from an automated Script ( for Leather ) 27</t>
-  </si>
-  <si>
     <t>This is from an automated Script ( for Leather ) 28</t>
   </si>
   <si>
     <t>This is from an automated Script ( for Leather ) 29</t>
   </si>
   <si>
-    <t>Leather00-30</t>
-  </si>
-  <si>
-    <t>LT-030</t>
-  </si>
-  <si>
     <t>This is from an automated Script ( for Leather ) 30</t>
   </si>
   <si>
-    <t>Leather00-31</t>
-  </si>
-  <si>
-    <t>LT-031</t>
-  </si>
-  <si>
     <t>This is from an automated Script ( for Leather ) 31</t>
   </si>
   <si>
-    <t>Auto Testing -027</t>
-  </si>
-  <si>
-    <t>Auto Testing -028</t>
-  </si>
-  <si>
-    <t>AT-LT-00-29</t>
-  </si>
-  <si>
-    <t>Auto Testing -029</t>
-  </si>
-  <si>
-    <t>T0-LT-00-30</t>
-  </si>
-  <si>
-    <t>AT-LT-00-30</t>
-  </si>
-  <si>
-    <t>Auto Testing -030</t>
-  </si>
-  <si>
-    <t>T0-LT-00-31</t>
-  </si>
-  <si>
-    <t>AT-LT-00-31</t>
-  </si>
-  <si>
-    <t>Auto Testing -031</t>
+    <t>This is from an automated Script ( for Leather ) 01</t>
+  </si>
+  <si>
+    <t>LT-MG-06</t>
+  </si>
+  <si>
+    <t>Leather-Management-06</t>
+  </si>
+  <si>
+    <t>Leather-Management-07</t>
+  </si>
+  <si>
+    <t>LT-MG-07</t>
+  </si>
+  <si>
+    <t>Leather-Management-08</t>
+  </si>
+  <si>
+    <t>LT-MG-08</t>
+  </si>
+  <si>
+    <t>Leather-Management-09</t>
+  </si>
+  <si>
+    <t>LT-MG-09</t>
+  </si>
+  <si>
+    <t>Leather-Management-10</t>
+  </si>
+  <si>
+    <t>LT-MG-10</t>
+  </si>
+  <si>
+    <t>T0-LT-MG-06</t>
+  </si>
+  <si>
+    <t>AT-LT-MG-06</t>
+  </si>
+  <si>
+    <t>Auto Testing -06</t>
+  </si>
+  <si>
+    <t>T0-LT-MG-07</t>
+  </si>
+  <si>
+    <t>AT-LT-MG-07</t>
+  </si>
+  <si>
+    <t>Auto Testing -07</t>
+  </si>
+  <si>
+    <t>T0-LT-MG-08</t>
+  </si>
+  <si>
+    <t>AT-LT-MG-08</t>
+  </si>
+  <si>
+    <t>Auto Testing -08</t>
+  </si>
+  <si>
+    <t>T0-LT-MG-09</t>
+  </si>
+  <si>
+    <t>AT-LT-MG-09</t>
+  </si>
+  <si>
+    <t>Auto Testing -09</t>
+  </si>
+  <si>
+    <t>T0-LT-MG-10</t>
+  </si>
+  <si>
+    <t>AT-LT-MG-10</t>
+  </si>
+  <si>
+    <t>Auto Testing -10</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -603,64 +603,65 @@
   <cols>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>1</v>
@@ -680,34 +681,34 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -719,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R2">
         <v>50</v>
@@ -748,34 +749,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -787,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R3">
         <v>50</v>
@@ -816,22 +817,22 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>70</v>
@@ -843,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -855,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R4">
         <v>50</v>
@@ -884,16 +885,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -911,7 +912,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -923,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R5">
         <v>50</v>
@@ -952,16 +953,16 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -979,7 +980,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -991,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R6">
         <v>50</v>
@@ -1029,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED44A35-A368-4BCC-8600-FD3C93577929}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1066,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1085,7 +1086,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1105,7 +1106,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1125,7 +1126,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1145,7 +1146,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
